--- a/xlsx/公民_intext.xlsx
+++ b/xlsx/公民_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
   <si>
     <t>公民</t>
   </si>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91</t>
   </si>
   <si>
-    <t>國民</t>
+    <t>国民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E7%B1%8D</t>
@@ -83,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E4%B9%85%E5%B1%85%E7%95%99%E6%AC%8A</t>
   </si>
   <si>
-    <t>永久居留權</t>
+    <t>永久居留权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E5%9C%8B%E7%B1%8D</t>
   </si>
   <si>
-    <t>無國籍</t>
+    <t>无国籍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%8B%98%E7%95%99</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>外國人</t>
+    <t>外国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E9%87%8D%E5%9B%BD%E7%B1%8D</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>屬地主義</t>
+    <t>属地主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%8A%AF</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%B1%8D%E6%B3%95</t>
   </si>
   <si>
-    <t>國籍法</t>
+    <t>国籍法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E5%A4%96%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>排外主義</t>
+    <t>排外主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Legal_status</t>
@@ -167,13 +167,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>權利</t>
+    <t>权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%8B%99</t>
   </si>
   <si>
-    <t>義務</t>
+    <t>义务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AA%E6%B3%95%E5%AD%A6</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治學</t>
+    <t>政治学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
@@ -203,9 +203,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%83%E5%88%A9</t>
   </si>
   <si>
-    <t>权利</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA</t>
   </si>
   <si>
@@ -215,7 +212,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6</t>
   </si>
   <si>
-    <t>專制</t>
+    <t>专制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
@@ -227,7 +224,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>民主國家</t>
+    <t>民主国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%93%E5%88%B6%E5%9B%BD%E5%AE%B6</t>
@@ -239,7 +236,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E7%B4%A0%E9%A4%8A</t>
   </si>
   <si>
-    <t>公民素養</t>
+    <t>公民素养</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E6%95%99%E8%82%B2</t>
@@ -251,31 +248,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%85%AC%E6%B0%91%E5%8F%8A%E7%B4%A0%E9%A4%8A%E8%AA%BF%E6%9F%A5%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>國際公民及素養調查研究</t>
+    <t>国际公民及素养调查研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>古希臘</t>
+    <t>古希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>古羅馬</t>
+    <t>古罗马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%85%AC%E6%B0%91</t>
   </si>
   <si>
-    <t>羅馬公民</t>
+    <t>罗马公民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B8</t>
   </si>
   <si>
-    <t>奴隸</t>
+    <t>奴隶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%9C%81</t>
@@ -293,7 +290,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%80%E8%AB%96%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>言論自由</t>
+    <t>言论自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E7%89%88%E8%87%AA%E7%94%B1</t>
@@ -311,43 +308,43 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E6%9C%83</t>
   </si>
   <si>
-    <t>集會</t>
+    <t>集会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%88%80%E6%84%9B</t>
   </si>
   <si>
-    <t>自由戀愛</t>
+    <t>自由恋爱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F</t>
   </si>
   <si>
-    <t>種族</t>
+    <t>种族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%86%9A%E8%89%B2</t>
   </si>
   <si>
-    <t>膚色</t>
+    <t>肤色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5</t>
   </si>
   <si>
-    <t>性別</t>
+    <t>性别</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B4%E9%BD%A1</t>
   </si>
   <si>
-    <t>年齡</t>
+    <t>年龄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>語言</t>
+    <t>语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
@@ -359,25 +356,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%B1%8D</t>
   </si>
   <si>
-    <t>國籍</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89%E6%AC%8A</t>
   </si>
   <si>
-    <t>選舉權</t>
+    <t>选举权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E6%83%85%E6%AC%8A</t>
   </si>
   <si>
-    <t>知情權</t>
+    <t>知情权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E5%8F%8A%E5%85%AC%E6%B0%91%E6%AC%8A%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>公民及公民權教育</t>
+    <t>公民及公民权教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E6%B0%91%E7%A4%BE%E4%BC%9A</t>
@@ -389,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>選舉</t>
+    <t>选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E7%A5%A8</t>
@@ -425,9 +419,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%80%E8%AE%BA%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>言论自由</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/right_to_a_fair_trial</t>
   </si>
   <si>
@@ -443,7 +434,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%81%B8</t>
   </si>
   <si>
-    <t>普選</t>
+    <t>普选</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E4%BA%A7</t>
@@ -569,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E6%AC%8A</t>
   </si>
   <si>
-    <t>公民權</t>
+    <t>公民权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E8%BA%AB%E4%BB%BD</t>
@@ -581,37 +572,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%95%99%E8%82%B2%E6%88%90%E7%B8%BE%E8%A9%95%E4%BC%B0%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>國際教育成績評估協會</t>
+    <t>国际教育成绩评估协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E5%B9%B4%E4%B8%80%E8%B2%AB%E8%AA%B2%E7%A8%8B</t>
   </si>
   <si>
-    <t>九年一貫課程</t>
+    <t>九年一贯课程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E4%B8%AD%E5%AD%B8</t>
   </si>
   <si>
-    <t>國民中學</t>
+    <t>国民中学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%B4%9A%E4%B8%AD%E7%AD%89%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>高級中等學校</t>
+    <t>高级中等学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%A7%91</t>
   </si>
   <si>
-    <t>學科</t>
+    <t>学科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86</t>
@@ -623,7 +614,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>歷史</t>
+    <t>历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A</t>
@@ -635,7 +626,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>公民社會</t>
+    <t>公民社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E6%8A%97%E5%91%BD</t>
@@ -647,19 +638,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E9%87%8D%E5%9C%8B%E7%B1%8D</t>
   </si>
   <si>
-    <t>雙重國籍</t>
+    <t>双重国籍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E8%B3%A6%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>天賦人權</t>
+    <t>天赋人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%BA%8B%E7%99%BB%E8%A8%98</t>
   </si>
   <si>
-    <t>民事登記</t>
+    <t>民事登记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -1976,7 +1967,7 @@
         <v>61</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G33" t="n">
         <v>19</v>
@@ -2031,10 +2022,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s">
         <v>63</v>
-      </c>
-      <c r="F35" t="s">
-        <v>64</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2060,10 +2051,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" t="s">
         <v>65</v>
-      </c>
-      <c r="F36" t="s">
-        <v>66</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -2089,10 +2080,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" t="s">
         <v>67</v>
-      </c>
-      <c r="F37" t="s">
-        <v>68</v>
       </c>
       <c r="G37" t="n">
         <v>6</v>
@@ -2118,10 +2109,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" t="s">
         <v>69</v>
-      </c>
-      <c r="F38" t="s">
-        <v>70</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2147,10 +2138,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" t="s">
         <v>71</v>
-      </c>
-      <c r="F39" t="s">
-        <v>72</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2176,10 +2167,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" t="s">
         <v>73</v>
-      </c>
-      <c r="F40" t="s">
-        <v>74</v>
       </c>
       <c r="G40" t="n">
         <v>5</v>
@@ -2205,10 +2196,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s">
         <v>75</v>
-      </c>
-      <c r="F41" t="s">
-        <v>76</v>
       </c>
       <c r="G41" t="n">
         <v>13</v>
@@ -2234,10 +2225,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" t="s">
         <v>77</v>
-      </c>
-      <c r="F42" t="s">
-        <v>78</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2263,10 +2254,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" t="s">
         <v>79</v>
-      </c>
-      <c r="F43" t="s">
-        <v>80</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2292,10 +2283,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" t="s">
         <v>81</v>
-      </c>
-      <c r="F44" t="s">
-        <v>82</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2321,10 +2312,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" t="s">
         <v>83</v>
-      </c>
-      <c r="F45" t="s">
-        <v>84</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2350,10 +2341,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" t="s">
         <v>85</v>
-      </c>
-      <c r="F46" t="s">
-        <v>86</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -2379,10 +2370,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>86</v>
+      </c>
+      <c r="F47" t="s">
         <v>87</v>
-      </c>
-      <c r="F47" t="s">
-        <v>88</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2408,10 +2399,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" t="s">
         <v>89</v>
-      </c>
-      <c r="F48" t="s">
-        <v>90</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2437,10 +2428,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" t="s">
         <v>91</v>
-      </c>
-      <c r="F49" t="s">
-        <v>92</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2466,10 +2457,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" t="s">
         <v>93</v>
-      </c>
-      <c r="F50" t="s">
-        <v>94</v>
       </c>
       <c r="G50" t="n">
         <v>3</v>
@@ -2495,10 +2486,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" t="s">
         <v>95</v>
-      </c>
-      <c r="F51" t="s">
-        <v>96</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2524,10 +2515,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" t="s">
         <v>97</v>
-      </c>
-      <c r="F52" t="s">
-        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2553,10 +2544,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" t="s">
         <v>99</v>
-      </c>
-      <c r="F53" t="s">
-        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2582,10 +2573,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" t="s">
         <v>101</v>
-      </c>
-      <c r="F54" t="s">
-        <v>102</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2611,10 +2602,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" t="s">
         <v>103</v>
-      </c>
-      <c r="F55" t="s">
-        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2640,10 +2631,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" t="s">
         <v>105</v>
-      </c>
-      <c r="F56" t="s">
-        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -2669,10 +2660,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" t="s">
         <v>107</v>
-      </c>
-      <c r="F57" t="s">
-        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2698,10 +2689,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" t="s">
         <v>109</v>
-      </c>
-      <c r="F58" t="s">
-        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2727,10 +2718,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59" t="s">
         <v>111</v>
-      </c>
-      <c r="F59" t="s">
-        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>5</v>
@@ -2756,10 +2747,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F60" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -2785,10 +2776,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F61" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -2814,10 +2805,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F62" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2843,10 +2834,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F63" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G63" t="n">
         <v>4</v>
@@ -2872,10 +2863,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F64" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2901,10 +2892,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F65" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -2930,10 +2921,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F66" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -2959,10 +2950,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -2988,10 +2979,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3017,10 +3008,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F69" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3046,10 +3037,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G70" t="n">
         <v>12</v>
@@ -3075,10 +3066,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="G71" t="n">
         <v>8</v>
@@ -3104,10 +3095,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3133,10 +3124,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F73" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3162,10 +3153,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3191,10 +3182,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3220,10 +3211,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3249,10 +3240,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G77" t="n">
         <v>4</v>
@@ -3278,10 +3269,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3307,10 +3298,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3336,10 +3327,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3365,10 +3356,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3394,10 +3385,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3423,10 +3414,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -3452,10 +3443,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3481,10 +3472,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -3510,10 +3501,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3539,10 +3530,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -3568,10 +3559,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3597,10 +3588,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -3626,10 +3617,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3655,10 +3646,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3684,10 +3675,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3713,10 +3704,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3742,10 +3733,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G94" t="n">
         <v>30</v>
@@ -3771,10 +3762,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G95" t="n">
         <v>16</v>
@@ -3800,10 +3791,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G96" t="n">
         <v>5</v>
@@ -3829,10 +3820,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3858,10 +3849,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>74</v>
+      </c>
+      <c r="F98" t="s">
         <v>75</v>
-      </c>
-      <c r="F98" t="s">
-        <v>76</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3887,10 +3878,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F99" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G99" t="n">
         <v>3</v>
@@ -3916,10 +3907,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F100" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3945,10 +3936,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F101" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -3974,10 +3965,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F102" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4003,10 +3994,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F103" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4032,10 +4023,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4061,10 +4052,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G105" t="n">
         <v>4</v>
@@ -4090,10 +4081,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G106" t="n">
         <v>4</v>
@@ -4119,10 +4110,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G107" t="n">
         <v>3</v>
@@ -4148,10 +4139,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4177,10 +4168,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4206,10 +4197,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4235,10 +4226,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4264,10 +4255,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G112" t="n">
         <v>4</v>
@@ -4293,10 +4284,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -4322,10 +4313,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G114" t="n">
         <v>5</v>
